--- a/data/long_razon/P31-Edad-long_razon.xlsx
+++ b/data/long_razon/P31-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-34,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-44,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-39,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 42,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -9,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,84; 144,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,81; -26,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 64,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -24,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 96,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 153,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 8,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 90,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,39; -3,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 10,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 31,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,45; 156,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 55,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 9,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 143,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 29,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 119,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 30,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,47; 112,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 21,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 93,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 54,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 43,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 36,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 49,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 35,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,87; 242,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,35; 30,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 16,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 21,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 72,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 12,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 48,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,14; -1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,7; 67,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,18; -4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,88; 51,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -7,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P31-Edad-long_razon.xlsx
+++ b/data/long_razon/P31-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.05979044058004467</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.379133337783368</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1891771693391419</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3040142997259211</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7792225006909653</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3946459789942026</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2597116824694633</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1883140837012285</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2660515112121242</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.3865165749817738</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.0172118930220076</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.03879386147879237</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.3419284594308625</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5762193509105069</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5091201853225477</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2058787441784938</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.302132721786667</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5687194899580736</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1124303058114825</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5058138585553772</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.003541780837941918</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5212365480340924</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.2566335978457143</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2526356471752481</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3826614253481979</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.1270070075767668</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2447266662614618</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.302065798360415</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.58080023480268</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.1747245298993184</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.774605101233199</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.2767994855364725</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.6159639940207084</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>-0.2400456783808482</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3150574755906819</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.498715768035041</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.2166411646897979</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3216064852260419</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5656508136810371</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3301059089207789</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.6885658017882772</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1440690052947904</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.2632238537682914</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.06074272973924028</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4170700556138977</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.2481962629889031</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.4495585523512207</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.15721253377055</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1953875899753993</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5127683691862731</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7666305497931916</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6469825163378453</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2314687093169238</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3526419293082936</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4605227008977903</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2300167380241922</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.1053782319212305</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4000986101623505</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6267615993868757</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4250038825968541</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.8841169412846492</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03950721243999052</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.33298640151012</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1754664992248627</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.398465040392987</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1047522860952931</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.03420788651617541</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.4947164852969201</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.9026879208343548</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>-0.01649037371521481</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.2806099824476025</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.1378380395425439</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1656469092356996</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.04351463699245628</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.007941257950998848</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1204847450546516</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.9222041638979772</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1563040946109879</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2899179991464969</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3140240512685783</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2457108149125318</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.1001938582930472</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.1565697079934491</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.2122144501745015</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4093293482691229</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2789565409249517</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2427919901869106</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.376123872901889</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4969568299295297</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3139352111572841</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4355747310271478</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5149837215974407</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.005121683853343143</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2382921889844358</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3020987938332025</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3728988034428772</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1055928031356247</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.272355149024325</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3527150538921099</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.1909242843229803</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.556524112607485</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.03433665066986383</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.0936910969755355</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.07698553058519263</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.5082668871039298</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.06903834810535242</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.01593973428148933</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-0.01650454138479309</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.7486161833041874</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.06131892989185113</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.4619399830228837</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3639423246629449</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6406091135866486</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.08409540992671448</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.3114578056632926</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.552679544774774</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.6921694788152288</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.01138052824054926</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.3914556872961599</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.07380589373441469</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.249376407511615</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.261112315404999</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.6299165164708332</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5724000000762753</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2817290839112208</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1118641503873764</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.4589691181385527</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.0231393402944514</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.3679941159414257</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1374079667101039</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.4993713333862888</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.301020527510859</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>1.382903455482473</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2356963751786177</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.2966651092600878</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.07797640888039593</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.097714350076192</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3195227851427335</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.1269615444491431</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.245720626264426</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.086267742163786</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.1773328453713609</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.2671059168566565</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.213439085934136</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.4020667305075626</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2068873974851695</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.4985852078393477</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.1175000703744159</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.000673112813502091</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.04089563173701288</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.2242817736114524</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.2420462477110746</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.1912152066246998</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.1260471872074332</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.3783147265001315</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.1854181391746395</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.03315955756822485</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.06921192960449557</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.6367541713954676</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4179895665976229</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.2774665183213388</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2455504018615577</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.4665284483648911</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.4608997178853877</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.06006719374995737</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.08411939082165391</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.5072216094718049</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.3857300106861556</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.039740452142375</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.5907119175440428</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.2388609735894082</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.3198300858978299</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.3691367114579506</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.3541570788503913</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.0938080788049558</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.05885162315868694</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.5239906998993724</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.3860930824189565</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.1992181661517397</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.03292646561992719</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>1.059706404015191</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.1123800437448158</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1501475458513581</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.2080203638218537</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.1950913730615688</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.05651235861049778</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.1339003414924585</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.03012817180195669</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.2547180560295547</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.08037514677498031</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.1410629123620511</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.1030011197854214</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>0.323651465795169</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4349207763486154</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4711380977395221</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5883744185544476</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.4784823255389786</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3282486046408405</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4387849567544501</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.4455410983133147</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.08995536761676617</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.274758749793917</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.3587225036251617</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.3814708998984175</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>2.480255116815604</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.3532931309955972</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.3380210535710798</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.385518623210335</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.2298045765253836</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.3310237921251553</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.2945477485120683</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.7051214333751876</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.8134188581194625</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.1826608184087681</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.1982693152763761</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.3434679170517081</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.2494041318222837</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1535975077968539</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.3396961048148215</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.1734919220887881</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4554262601885073</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1203070947639884</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.185918111269168</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.07447604493972799</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.3462278500852812</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.1373567656012812</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.2672570834423411</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.1260502815267633</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.07089953063502326</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2547189445316635</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4476843597817679</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.3069599520096953</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3047501606275296</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.221780130544815</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.276732227162951</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2212378400305153</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.2145606473306232</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.2025153578678161</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.3409619117854732</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.2395830730673372</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.4393339115451277</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.03659405815363174</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.216049835192603</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-0.004069476144467622</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6806228543527298</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.01970640508554426</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>-0.0566796112844016</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.09742585465390033</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.4961925782397869</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>-0.05832427362712191</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.1865700131637273</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>-0.006000367699766697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
